--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9E0AD6-3712-459C-8EE8-9A2A4F39DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027263A6-421E-4418-9942-292E5A72ABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="219">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -703,10 +703,6 @@
   <si>
     <t>A：新增(人工紙本)
 O：舊檔轉換用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>OccAuthCreateDate</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -924,6 +920,25 @@
 1:需審查/確認
 2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料製作日期</t>
+  </si>
+  <si>
+    <t>OccPropDate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出日期(西元)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayBank = ,AND RepayAcct = ,AND PropDate = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facmNoPropDateFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1607,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -1841,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1921,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6">
@@ -1941,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1984,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2046,10 +2061,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>74</v>
@@ -2058,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="226.8">
@@ -2078,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2152,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="64.8">
@@ -2172,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2180,10 +2195,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>32</v>
@@ -2280,11 +2295,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2445,7 +2460,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>118</v>
@@ -2467,21 +2482,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>208</v>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2495,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2864,10 +2887,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>172</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -2878,7 +2901,9 @@
       <c r="F16" s="34">
         <v>79</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="35" t="s">
+        <v>216</v>
+      </c>
       <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8">
@@ -2886,10 +2911,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>173</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>174</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -2901,7 +2926,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="33"/>
     </row>
@@ -2910,10 +2935,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>134</v>
@@ -2925,7 +2950,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="33"/>
     </row>
@@ -2934,10 +2959,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>179</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>134</v>
@@ -2949,7 +2974,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H19" s="33"/>
     </row>
@@ -2958,10 +2983,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>182</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>183</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>134</v>
@@ -2973,7 +2998,7 @@
         <v>108</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H20" s="33"/>
     </row>
@@ -2982,10 +3007,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>185</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>186</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>134</v>
@@ -3004,7 +3029,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>147</v>
@@ -3036,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>188</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>189</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>134</v>
@@ -3051,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H24" s="33"/>
     </row>
@@ -3060,10 +3085,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>191</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>192</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3082,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>147</v>
@@ -3109,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3143,7 +3168,7 @@
         <v>128</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>129</v>
@@ -3152,7 +3177,7 @@
         <v>130</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3533,10 +3558,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -3551,7 +3576,9 @@
       <c r="G16" s="34">
         <v>79</v>
       </c>
-      <c r="H16" s="35"/>
+      <c r="H16" s="35" t="s">
+        <v>216</v>
+      </c>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9">
@@ -3559,10 +3586,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>173</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>174</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -3578,7 +3605,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" s="33"/>
     </row>
@@ -3587,10 +3614,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>134</v>
@@ -3606,7 +3633,7 @@
         <v>106</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I18" s="33"/>
     </row>
@@ -3615,10 +3642,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>179</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>134</v>
@@ -3634,10 +3661,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3645,10 +3672,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>182</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>183</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>134</v>
@@ -3664,7 +3691,7 @@
         <v>108</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I20" s="33"/>
     </row>
@@ -3673,10 +3700,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>185</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>186</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>134</v>
@@ -3699,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>147</v>
@@ -3736,10 +3763,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>188</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>189</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>134</v>
@@ -3754,7 +3781,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="33"/>
     </row>
@@ -3763,10 +3790,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>191</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>192</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3789,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>147</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027263A6-421E-4418-9942-292E5A72ABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FCE9D-A67D-4D8A-B4B6-D27C39C43899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="222">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>建檔日期</t>
-  </si>
-  <si>
-    <t>最新動作之日期時間(Ex.建檔提出產媒體)</t>
   </si>
   <si>
     <t>Key ID</t>
@@ -939,6 +936,22 @@
   <si>
     <t>facmNoPropDateFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新動作之日期時間(Ex.建檔提出產媒體)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新動作之日期時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1151,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +1292,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1620,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1656,7 +1672,7 @@
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1671,7 +1687,7 @@
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>37</v>
@@ -1844,10 +1860,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>32</v>
@@ -1856,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1896,7 +1912,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1904,149 +1920,151 @@
         <v>8</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>66</v>
+        <v>221</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="26">
-        <v>8</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="372.6">
+      <c r="E17" s="16">
+        <v>6</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="23">
         <v>9</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>121</v>
+      <c r="B18" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="48.6">
+        <v>66</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="26">
+        <v>8</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="372.6">
       <c r="A19" s="23">
         <v>10</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E19" s="23">
         <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="48.6">
       <c r="A20" s="23">
         <v>11</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E20" s="23">
-        <v>8</v>
-      </c>
-      <c r="F20" s="16">
-        <v>2</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32.4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="23">
         <v>12</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>90</v>
+      <c r="B21" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32.4">
       <c r="A22" s="23">
         <v>13</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="23">
-        <v>6</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="23">
         <v>14</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>48</v>
+      <c r="B23" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="26">
-        <v>8</v>
-      </c>
-      <c r="G23" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="23">
+        <v>6</v>
+      </c>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="23">
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>74</v>
@@ -2061,10 +2079,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>74</v>
@@ -2072,63 +2090,63 @@
       <c r="E25" s="26">
         <v>8</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="226.8">
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="23">
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="23">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>196</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="26">
+        <v>8</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="226.8">
       <c r="A27" s="23">
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="26">
-        <v>100</v>
-      </c>
-      <c r="G27" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="23">
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="23">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="E28" s="26">
+        <v>100</v>
       </c>
       <c r="G28" s="20"/>
     </row>
@@ -2137,16 +2155,16 @@
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="26">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="23">
+        <v>10</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -2155,91 +2173,93 @@
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="23">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="64.8">
+        <v>77</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="26">
+        <v>8</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="23">
         <v>22</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E31" s="23">
         <v>1</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="64.8">
       <c r="A32" s="23">
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E32" s="23">
-        <v>5</v>
-      </c>
-      <c r="G32" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="23">
         <v>24</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="26">
-        <v>6</v>
-      </c>
-      <c r="G33" s="20"/>
+      <c r="E33" s="23">
+        <v>5</v>
+      </c>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="23">
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="26">
+        <v>6</v>
+      </c>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7">
@@ -2247,17 +2267,15 @@
         <v>26</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="26">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="26"/>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7">
@@ -2265,16 +2283,34 @@
         <v>27</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="26">
+        <v>6</v>
+      </c>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="16">
+        <v>28</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D37" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="G36" s="20"/>
+      <c r="E37" s="26"/>
+      <c r="G37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2297,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
@@ -2385,7 +2421,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2438,73 +2474,73 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2518,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2536,28 +2572,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2565,13 +2601,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>134</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
@@ -2580,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="33"/>
     </row>
@@ -2589,13 +2625,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>137</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="34">
         <v>6</v>
@@ -2604,10 +2640,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>138</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2615,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="D4" s="34">
         <v>9</v>
@@ -2630,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="33"/>
     </row>
@@ -2639,10 +2675,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>144</v>
       </c>
       <c r="D5" s="34">
         <v>9</v>
@@ -2654,7 +2690,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="33"/>
     </row>
@@ -2663,13 +2699,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>147</v>
-      </c>
       <c r="D6" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="34">
         <v>96</v>
@@ -2695,10 +2731,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>149</v>
       </c>
       <c r="D8" s="34">
         <v>9</v>
@@ -2710,7 +2746,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="33"/>
     </row>
@@ -2719,13 +2755,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>152</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="34">
         <v>3</v>
@@ -2743,13 +2779,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="D10" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="34">
         <v>10</v>
@@ -2758,7 +2794,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -2767,10 +2803,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="D11" s="34">
         <v>9</v>
@@ -2782,7 +2818,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -2791,13 +2827,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>160</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="34">
         <v>14</v>
@@ -2806,7 +2842,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -2815,13 +2851,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="D13" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="34">
         <v>10</v>
@@ -2830,7 +2866,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -2839,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>166</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="34">
         <v>20</v>
@@ -2854,7 +2890,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -2863,13 +2899,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>169</v>
-      </c>
       <c r="D15" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -2878,7 +2914,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -2887,10 +2923,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -2902,7 +2938,7 @@
         <v>79</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -2911,10 +2947,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>172</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>173</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -2926,7 +2962,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="33"/>
     </row>
@@ -2935,13 +2971,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>176</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="34">
         <v>20</v>
@@ -2950,7 +2986,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18" s="33"/>
     </row>
@@ -2959,13 +2995,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>179</v>
-      </c>
       <c r="D19" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
@@ -2974,7 +3010,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H19" s="33"/>
     </row>
@@ -2983,13 +3019,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>182</v>
-      </c>
       <c r="D20" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
@@ -2998,7 +3034,7 @@
         <v>108</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" s="33"/>
     </row>
@@ -3007,13 +3043,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>185</v>
-      </c>
       <c r="D21" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -3029,13 +3065,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="34">
         <v>4</v>
@@ -3061,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>188</v>
-      </c>
       <c r="D24" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
@@ -3076,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H24" s="33"/>
     </row>
@@ -3085,10 +3121,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>191</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3107,13 +3143,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="34">
         <v>109</v>
@@ -3134,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3153,31 +3189,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>193</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3185,13 +3221,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>134</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
@@ -3203,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" s="33"/>
     </row>
@@ -3212,13 +3248,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>137</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="34">
         <v>6</v>
@@ -3231,10 +3267,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3242,10 +3278,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="D4" s="34">
         <v>9</v>
@@ -3261,7 +3297,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I4" s="33"/>
     </row>
@@ -3270,10 +3306,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>144</v>
       </c>
       <c r="D5" s="34">
         <v>9</v>
@@ -3289,7 +3325,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" s="33"/>
     </row>
@@ -3298,13 +3334,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>147</v>
-      </c>
       <c r="D6" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="34">
         <v>96</v>
@@ -3335,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>149</v>
       </c>
       <c r="D8" s="34">
         <v>9</v>
@@ -3353,7 +3389,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="33"/>
     </row>
@@ -3362,13 +3398,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>152</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="34">
         <v>3</v>
@@ -3390,13 +3426,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="D10" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="34">
         <v>10</v>
@@ -3409,7 +3445,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="33"/>
     </row>
@@ -3418,10 +3454,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="D11" s="34">
         <v>9</v>
@@ -3437,7 +3473,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I11" s="33"/>
     </row>
@@ -3446,13 +3482,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>160</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="34">
         <v>14</v>
@@ -3465,7 +3501,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I12" s="33"/>
     </row>
@@ -3474,13 +3510,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="D13" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="34">
         <v>10</v>
@@ -3493,7 +3529,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I13" s="33"/>
     </row>
@@ -3502,13 +3538,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>166</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="34">
         <v>20</v>
@@ -3521,7 +3557,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I14" s="33"/>
     </row>
@@ -3530,13 +3566,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>169</v>
-      </c>
       <c r="D15" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -3549,7 +3585,7 @@
         <v>71</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" s="33"/>
     </row>
@@ -3558,10 +3594,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -3577,7 +3613,7 @@
         <v>79</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I16" s="33"/>
     </row>
@@ -3586,10 +3622,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>172</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>173</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -3605,7 +3641,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I17" s="33"/>
     </row>
@@ -3614,13 +3650,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>176</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="34">
         <v>20</v>
@@ -3633,7 +3669,7 @@
         <v>106</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I18" s="33"/>
     </row>
@@ -3642,13 +3678,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>179</v>
-      </c>
       <c r="D19" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
@@ -3661,10 +3697,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3672,13 +3708,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>182</v>
-      </c>
       <c r="D20" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
@@ -3691,7 +3727,7 @@
         <v>108</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I20" s="33"/>
     </row>
@@ -3700,13 +3736,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>185</v>
-      </c>
       <c r="D21" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -3726,13 +3762,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="34">
         <v>4</v>
@@ -3763,13 +3799,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>188</v>
-      </c>
       <c r="D24" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
@@ -3781,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I24" s="33"/>
     </row>
@@ -3790,10 +3826,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>191</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3816,13 +3852,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="34">
         <v>109</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FCE9D-A67D-4D8A-B4B6-D27C39C43899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7955D16-E238-4161-97DB-BF1BD21F6A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1282,6 +1282,9 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1292,9 +1295,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1654,10 +1654,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
         <v>106</v>
       </c>
@@ -1669,8 +1669,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
         <v>108</v>
       </c>
@@ -1682,10 +1682,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
         <v>109</v>
       </c>
@@ -1697,10 +1697,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1708,10 +1708,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="18" t="s">
         <v>39</v>
       </c>
@@ -1721,10 +1721,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="18" t="s">
         <v>104</v>
       </c>
@@ -1734,10 +1734,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1747,10 +1747,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="22" t="s">
         <v>64</v>
       </c>
@@ -1926,12 +1926,12 @@
         <v>218</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E17" s="16">
         <v>6</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="39" t="s">
         <v>220</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7955D16-E238-4161-97DB-BF1BD21F6A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB2728-336E-4DDE-8E75-7ABBFCE5C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="224">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -952,6 +952,14 @@
   <si>
     <t>ProcessTime</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>propBatchNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropDate = ,AND BatchNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1638,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2331,11 +2339,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2541,6 +2549,14 @@
       </c>
       <c r="B22" s="1" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB2728-336E-4DDE-8E75-7ABBFCE5C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2DD98-E3AC-403E-8511-5C3590855836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="225">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -959,6 +959,10 @@
   </si>
   <si>
     <t>PropDate = ,AND BatchNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2341,9 +2345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2557,6 +2561,9 @@
       </c>
       <c r="B23" s="1" t="s">
         <v>223</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2DD98-E3AC-403E-8511-5C3590855836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7AD3D0-7EED-478F-9197-D69ED91BA0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -885,12 +885,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.AchAuthCode
-A:紙本新增
-O:舊檔轉換</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode.RelationCode
 00:本人
 01:夫
@@ -965,12 +959,32 @@
     <t>BatchNo Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CdCode.AchAuthCode
+A:紙本新增
+O:舊檔轉換
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>X:紙本終止
+R:申請恢復</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1063,6 +1077,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1650,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1924,7 +1945,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1932,10 +1953,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>33</v>
@@ -1944,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1987,7 +2008,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="48.6">
+    <row r="20" spans="1:7" ht="81">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -2004,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2141,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2215,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="64.8">
@@ -2235,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2345,7 +2366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
@@ -2549,21 +2570,21 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +2599,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2946,7 +2967,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>170</v>
@@ -2961,7 +2982,7 @@
         <v>79</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -3194,7 +3215,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3617,10 +3638,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -3636,7 +3657,7 @@
         <v>79</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I16" s="33"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7AD3D0-7EED-478F-9197-D69ED91BA0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E32CB5-5438-4137-AB20-D4D630F78B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1672,7 +1673,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2042,7 +2043,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" s="16">
         <v>2</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E32CB5-5438-4137-AB20-D4D630F78B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C85067-D283-4086-A22D-EB6AAF4A94F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="227">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -978,6 +978,14 @@
       <t>X:紙本終止
 R:申請恢復</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理日期時間</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1670,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1974,16 +1982,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>66</v>
+        <v>225</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="26">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>65</v>
@@ -1993,17 +1998,17 @@
       <c r="A19" s="23">
         <v>10</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>120</v>
+      <c r="B19" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="26">
+        <v>8</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>208</v>
@@ -2014,13 +2019,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E20" s="23">
         <v>1</v>
@@ -2034,16 +2039,16 @@
         <v>12</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F21" s="16">
         <v>2</v>
@@ -2056,17 +2061,17 @@
       <c r="A22" s="23">
         <v>13</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>90</v>
+      <c r="B22" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E22" s="23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>198</v>
@@ -2077,16 +2082,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G23" s="21"/>
     </row>
@@ -2094,17 +2099,17 @@
       <c r="A24" s="23">
         <v>15</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>48</v>
+      <c r="B24" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="26">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="23">
+        <v>6</v>
       </c>
       <c r="G24" s="20"/>
     </row>
@@ -2113,10 +2118,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>74</v>
@@ -2131,10 +2136,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>74</v>
@@ -2151,16 +2156,16 @@
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2</v>
+        <v>196</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="26">
+        <v>8</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>209</v>
@@ -2171,16 +2176,16 @@
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="26">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2</v>
       </c>
       <c r="G28" s="20"/>
     </row>
@@ -2189,16 +2194,16 @@
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="23">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="E29" s="26">
+        <v>100</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -2207,16 +2212,16 @@
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="26">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="23">
+        <v>10</v>
       </c>
       <c r="G30" s="20"/>
     </row>
@@ -2225,16 +2230,16 @@
         <v>22</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="26">
+        <v>8</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>210</v>
@@ -2245,13 +2250,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E32" s="23">
         <v>1</v>
@@ -2265,16 +2270,16 @@
         <v>24</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E33" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="27"/>
     </row>
@@ -2283,16 +2288,16 @@
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="26">
-        <v>6</v>
+      <c r="E34" s="23">
+        <v>5</v>
       </c>
       <c r="G34" s="20"/>
     </row>
@@ -2301,15 +2306,17 @@
         <v>26</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="26">
+        <v>6</v>
+      </c>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7">
@@ -2317,34 +2324,49 @@
         <v>27</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="23">
+        <v>28</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D37" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E37" s="26">
         <v>6</v>
       </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="16">
-        <v>28</v>
-      </c>
-      <c r="B37" s="22" t="s">
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="16">
+        <v>29</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D38" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="G37" s="20"/>
+      <c r="E38" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C85067-D283-4086-A22D-EB6AAF4A94F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B99F50-4F9E-4019-B50D-B1D77FD07105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="224">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -284,10 +284,6 @@
   </si>
   <si>
     <t>RetrDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>提回並且成功之日期時間</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -937,14 +933,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>最新動作之日期時間(Ex.建檔提出產媒體)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新動作之日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>ProcessTime</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -981,11 +969,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>ProcessDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理日期時間</t>
+    <t>產出媒體檔之日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>產出媒體檔之時間</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1678,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1701,7 +1689,7 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -1714,7 +1702,7 @@
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1729,7 +1717,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>37</v>
@@ -1768,7 +1756,7 @@
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1832,10 +1820,10 @@
         <v>39</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="26">
         <v>8</v>
@@ -1848,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>22</v>
@@ -1866,13 +1854,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="26">
         <v>3</v>
@@ -1890,7 +1878,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="16">
         <v>14</v>
@@ -1902,10 +1890,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>32</v>
@@ -1914,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1942,19 +1930,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="26">
         <v>8</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1962,10 +1950,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>33</v>
@@ -1974,142 +1962,143 @@
         <v>6</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="372.6">
       <c r="A18" s="23">
         <v>9</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>226</v>
+        <v>18</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="372.6">
+        <v>73</v>
+      </c>
+      <c r="E18" s="26">
+        <v>8</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="81">
       <c r="A19" s="23">
         <v>10</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>18</v>
+      <c r="B19" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="26">
-        <v>8</v>
+        <v>83</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="81">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="23">
         <v>11</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E20" s="23">
         <v>1</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" s="16">
+        <v>2</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32.4">
       <c r="A21" s="23">
         <v>12</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="23">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
-        <v>2</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32.4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="23">
         <v>13</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>19</v>
+      <c r="B22" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E22" s="23">
-        <v>10</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>198</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="23">
         <v>14</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="23">
         <v>15</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>57</v>
+      <c r="B24" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="23">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="26">
+        <v>8</v>
       </c>
       <c r="G24" s="20"/>
     </row>
@@ -2118,74 +2107,74 @@
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="26">
         <v>8</v>
       </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="226.8">
       <c r="A26" s="23">
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="26">
         <v>8</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="226.8">
+      <c r="G26" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="23">
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="26">
-        <v>8</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>209</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="23">
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="D28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="23">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="E28" s="26">
+        <v>100</v>
       </c>
       <c r="G28" s="20"/>
     </row>
@@ -2194,16 +2183,16 @@
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="26">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="E29" s="23">
+        <v>10</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -2212,20 +2201,22 @@
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="23">
-        <v>10</v>
-      </c>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="26">
+        <v>8</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="64.8">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -2235,69 +2226,67 @@
       <c r="C31" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="26">
-        <v>8</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="D31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="64.8">
+    <row r="32" spans="1:7">
       <c r="A32" s="23">
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E32" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>211</v>
-      </c>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="23">
         <v>24</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E33" s="23">
-        <v>1</v>
-      </c>
-      <c r="G33" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="23">
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="23">
-        <v>5</v>
+      <c r="E34" s="26">
+        <v>6</v>
       </c>
       <c r="G34" s="20"/>
     </row>
@@ -2306,17 +2295,15 @@
         <v>26</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="26">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="26"/>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7">
@@ -2324,49 +2311,33 @@
         <v>27</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="26">
+        <v>6</v>
+      </c>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="23">
+      <c r="A37" s="16">
         <v>28</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="26">
-        <v>6</v>
-      </c>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="16">
-        <v>29</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D37" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="26"/>
+      <c r="E37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2450,7 +2421,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2466,148 +2437,148 @@
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2610,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>129</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2668,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>133</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
@@ -2683,7 +2654,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H2" s="33"/>
     </row>
@@ -2692,13 +2663,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>136</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="34">
         <v>6</v>
@@ -2707,10 +2678,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2718,10 +2689,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>139</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>140</v>
       </c>
       <c r="D4" s="34">
         <v>9</v>
@@ -2733,7 +2704,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="33"/>
     </row>
@@ -2742,10 +2713,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>142</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>143</v>
       </c>
       <c r="D5" s="34">
         <v>9</v>
@@ -2757,7 +2728,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="33"/>
     </row>
@@ -2766,13 +2737,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>146</v>
-      </c>
       <c r="D6" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="34">
         <v>96</v>
@@ -2798,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="D8" s="34">
         <v>9</v>
@@ -2813,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="33"/>
     </row>
@@ -2822,13 +2793,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>151</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="34">
         <v>3</v>
@@ -2846,13 +2817,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>153</v>
-      </c>
       <c r="D10" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="34">
         <v>10</v>
@@ -2861,7 +2832,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -2870,10 +2841,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>155</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>156</v>
       </c>
       <c r="D11" s="34">
         <v>9</v>
@@ -2885,7 +2856,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -2894,13 +2865,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>159</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="34">
         <v>14</v>
@@ -2909,7 +2880,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -2918,13 +2889,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>162</v>
-      </c>
       <c r="D13" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="34">
         <v>10</v>
@@ -2933,7 +2904,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -2942,13 +2913,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>165</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="34">
         <v>20</v>
@@ -2957,7 +2928,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -2966,13 +2937,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>168</v>
-      </c>
       <c r="D15" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -2981,7 +2952,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -2990,10 +2961,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -3005,7 +2976,7 @@
         <v>79</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -3014,10 +2985,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>172</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -3029,7 +3000,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H17" s="33"/>
     </row>
@@ -3038,13 +3009,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>175</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="34">
         <v>20</v>
@@ -3053,7 +3024,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" s="33"/>
     </row>
@@ -3062,13 +3033,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>178</v>
-      </c>
       <c r="D19" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
@@ -3077,7 +3048,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H19" s="33"/>
     </row>
@@ -3086,13 +3057,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>181</v>
-      </c>
       <c r="D20" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
@@ -3101,7 +3072,7 @@
         <v>108</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H20" s="33"/>
     </row>
@@ -3110,13 +3081,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>184</v>
-      </c>
       <c r="D21" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -3132,13 +3103,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="34">
         <v>4</v>
@@ -3164,13 +3135,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>187</v>
-      </c>
       <c r="D24" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
@@ -3179,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H24" s="33"/>
     </row>
@@ -3188,10 +3159,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>189</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>190</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3210,13 +3181,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="34">
         <v>109</v>
@@ -3256,31 +3227,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>192</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3288,13 +3259,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>133</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
@@ -3306,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2" s="33"/>
     </row>
@@ -3315,13 +3286,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>136</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="34">
         <v>6</v>
@@ -3334,10 +3305,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3345,10 +3316,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>139</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>140</v>
       </c>
       <c r="D4" s="34">
         <v>9</v>
@@ -3364,7 +3335,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I4" s="33"/>
     </row>
@@ -3373,10 +3344,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>142</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>143</v>
       </c>
       <c r="D5" s="34">
         <v>9</v>
@@ -3392,7 +3363,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5" s="33"/>
     </row>
@@ -3401,13 +3372,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>146</v>
-      </c>
       <c r="D6" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="34">
         <v>96</v>
@@ -3438,10 +3409,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="D8" s="34">
         <v>9</v>
@@ -3456,7 +3427,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" s="33"/>
     </row>
@@ -3465,13 +3436,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>151</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="34">
         <v>3</v>
@@ -3493,13 +3464,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>153</v>
-      </c>
       <c r="D10" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="34">
         <v>10</v>
@@ -3512,7 +3483,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="33"/>
     </row>
@@ -3521,10 +3492,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>155</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>156</v>
       </c>
       <c r="D11" s="34">
         <v>9</v>
@@ -3540,7 +3511,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I11" s="33"/>
     </row>
@@ -3549,13 +3520,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>159</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="34">
         <v>14</v>
@@ -3568,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="33"/>
     </row>
@@ -3577,13 +3548,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>162</v>
-      </c>
       <c r="D13" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="34">
         <v>10</v>
@@ -3596,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" s="33"/>
     </row>
@@ -3605,13 +3576,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>165</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="34">
         <v>20</v>
@@ -3624,7 +3595,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I14" s="33"/>
     </row>
@@ -3633,13 +3604,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>168</v>
-      </c>
       <c r="D15" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -3652,7 +3623,7 @@
         <v>71</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I15" s="33"/>
     </row>
@@ -3661,10 +3632,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -3680,7 +3651,7 @@
         <v>79</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I16" s="33"/>
     </row>
@@ -3689,10 +3660,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>172</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -3708,7 +3679,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I17" s="33"/>
     </row>
@@ -3717,13 +3688,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>175</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="34">
         <v>20</v>
@@ -3736,7 +3707,7 @@
         <v>106</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I18" s="33"/>
     </row>
@@ -3745,13 +3716,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>178</v>
-      </c>
       <c r="D19" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
@@ -3764,10 +3735,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3775,13 +3746,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>181</v>
-      </c>
       <c r="D20" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
@@ -3794,7 +3765,7 @@
         <v>108</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I20" s="33"/>
     </row>
@@ -3803,13 +3774,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>184</v>
-      </c>
       <c r="D21" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -3829,13 +3800,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="34">
         <v>4</v>
@@ -3866,13 +3837,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>187</v>
-      </c>
       <c r="D24" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
@@ -3884,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" s="33"/>
     </row>
@@ -3893,10 +3864,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>189</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>190</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3919,13 +3890,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="34">
         <v>109</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B99F50-4F9E-4019-B50D-B1D77FD07105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -195,10 +194,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>AuthMeth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>與借款人關係</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -810,11 +805,6 @@
   </si>
   <si>
     <t>已授權成功為暫停授權</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>空白:未產生媒體
-Y:已產生媒體</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -882,32 +872,8 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.RelationCode
-00:本人
-01:夫
-02:妻
-03:父
-04:母
-05:子
-06:女
-07:兄
-08:弟
-09:姊
-10:妹
-11:姪子
-99:其他</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode.Sex</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AmlCheckItem
-0:非可疑名單/已完成名單確認
-1:需審查/確認
-2:為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>資料製作日期</t>
@@ -976,11 +942,44 @@
     <t>產出媒體檔之時間</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthMeth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null:未產生媒體
+Y:已產生媒體</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1330,7 +1329,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1421,23 +1420,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1473,23 +1455,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1665,11 +1630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1689,7 +1654,7 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -1702,7 +1667,7 @@
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1717,7 +1682,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>37</v>
@@ -1756,7 +1721,7 @@
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1769,7 +1734,7 @@
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1778,11 +1743,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1820,10 +1785,10 @@
         <v>39</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="26">
         <v>8</v>
@@ -1836,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>22</v>
@@ -1854,13 +1819,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="26">
         <v>3</v>
@@ -1872,13 +1837,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="16">
         <v>14</v>
@@ -1890,10 +1855,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>32</v>
@@ -1902,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1930,19 +1895,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="26">
         <v>8</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1950,10 +1915,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>33</v>
@@ -1962,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="372.6">
@@ -1973,16 +1938,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="26">
         <v>8</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="81">
@@ -1990,19 +1955,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="23">
         <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2010,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>26</v>
@@ -2025,10 +1990,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -2044,19 +2009,17 @@
       <c r="E21" s="23">
         <v>10</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.4">
       <c r="A22" s="23">
         <v>13</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>32</v>
@@ -2064,17 +2027,19 @@
       <c r="E22" s="23">
         <v>1</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="23">
         <v>14</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>32</v>
@@ -2089,13 +2054,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="26">
         <v>8</v>
@@ -2107,50 +2072,48 @@
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="26">
         <v>8</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="226.8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="23">
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>195</v>
-      </c>
       <c r="D26" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="26">
         <v>8</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="226.8">
       <c r="A27" s="23">
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>32</v>
@@ -2158,17 +2121,19 @@
       <c r="E27" s="23">
         <v>2</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="21" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="23">
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>35</v>
@@ -2183,10 +2148,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>32</v>
@@ -2201,30 +2166,30 @@
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="26">
         <v>8</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="64.8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="23">
         <v>22</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>32</v>
@@ -2232,37 +2197,37 @@
       <c r="E31" s="23">
         <v>1</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" ht="64.8">
       <c r="A32" s="23">
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="E32" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="27" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="23">
         <v>24</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>32</v>
@@ -2277,7 +2242,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>28</v>
@@ -2295,7 +2260,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>29</v>
@@ -2357,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2386,199 +2351,199 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2610,28 +2575,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2639,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>132</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
@@ -2654,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="33"/>
     </row>
@@ -2663,13 +2628,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>135</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="34">
         <v>6</v>
@@ -2678,10 +2643,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>136</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2689,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>139</v>
       </c>
       <c r="D4" s="34">
         <v>9</v>
@@ -2704,7 +2669,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H4" s="33"/>
     </row>
@@ -2713,10 +2678,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>141</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>142</v>
       </c>
       <c r="D5" s="34">
         <v>9</v>
@@ -2728,7 +2693,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="33"/>
     </row>
@@ -2737,13 +2702,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>145</v>
-      </c>
       <c r="D6" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="34">
         <v>96</v>
@@ -2769,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>146</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="D8" s="34">
         <v>9</v>
@@ -2784,7 +2749,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="33"/>
     </row>
@@ -2793,13 +2758,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>150</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="34">
         <v>3</v>
@@ -2817,13 +2782,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>152</v>
-      </c>
       <c r="D10" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="34">
         <v>10</v>
@@ -2832,7 +2797,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -2841,10 +2806,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>155</v>
       </c>
       <c r="D11" s="34">
         <v>9</v>
@@ -2856,7 +2821,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -2865,13 +2830,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>158</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="34">
         <v>14</v>
@@ -2880,7 +2845,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -2889,13 +2854,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="D13" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="34">
         <v>10</v>
@@ -2904,7 +2869,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -2913,13 +2878,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>164</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="34">
         <v>20</v>
@@ -2928,7 +2893,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -2937,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>167</v>
-      </c>
       <c r="D15" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -2952,7 +2917,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -2961,10 +2926,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -2976,7 +2941,7 @@
         <v>79</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -2985,10 +2950,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>171</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -3000,7 +2965,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H17" s="33"/>
     </row>
@@ -3009,13 +2974,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>174</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="34">
         <v>20</v>
@@ -3024,7 +2989,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="33"/>
     </row>
@@ -3033,13 +2998,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>177</v>
-      </c>
       <c r="D19" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
@@ -3048,7 +3013,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" s="33"/>
     </row>
@@ -3057,13 +3022,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>180</v>
-      </c>
       <c r="D20" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
@@ -3072,7 +3037,7 @@
         <v>108</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H20" s="33"/>
     </row>
@@ -3081,13 +3046,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>183</v>
-      </c>
       <c r="D21" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -3103,13 +3068,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="34">
         <v>4</v>
@@ -3135,13 +3100,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>186</v>
-      </c>
       <c r="D24" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
@@ -3150,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H24" s="33"/>
     </row>
@@ -3159,10 +3124,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>188</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>189</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3181,13 +3146,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="34">
         <v>109</v>
@@ -3205,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3227,31 +3192,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>191</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3259,13 +3224,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>132</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
@@ -3277,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I2" s="33"/>
     </row>
@@ -3286,13 +3251,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>135</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="34">
         <v>6</v>
@@ -3305,10 +3270,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3316,10 +3281,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>139</v>
       </c>
       <c r="D4" s="34">
         <v>9</v>
@@ -3335,7 +3300,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" s="33"/>
     </row>
@@ -3344,10 +3309,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>141</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>142</v>
       </c>
       <c r="D5" s="34">
         <v>9</v>
@@ -3363,7 +3328,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" s="33"/>
     </row>
@@ -3372,13 +3337,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>145</v>
-      </c>
       <c r="D6" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="34">
         <v>96</v>
@@ -3409,10 +3374,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>146</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="D8" s="34">
         <v>9</v>
@@ -3427,7 +3392,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" s="33"/>
     </row>
@@ -3436,13 +3401,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>150</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="34">
         <v>3</v>
@@ -3464,13 +3429,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>152</v>
-      </c>
       <c r="D10" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="34">
         <v>10</v>
@@ -3483,7 +3448,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="33"/>
     </row>
@@ -3492,10 +3457,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>155</v>
       </c>
       <c r="D11" s="34">
         <v>9</v>
@@ -3511,7 +3476,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I11" s="33"/>
     </row>
@@ -3520,13 +3485,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>158</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="34">
         <v>14</v>
@@ -3539,7 +3504,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="33"/>
     </row>
@@ -3548,13 +3513,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="D13" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="34">
         <v>10</v>
@@ -3567,7 +3532,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" s="33"/>
     </row>
@@ -3576,13 +3541,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>164</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="34">
         <v>20</v>
@@ -3595,7 +3560,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I14" s="33"/>
     </row>
@@ -3604,13 +3569,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>167</v>
-      </c>
       <c r="D15" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -3623,7 +3588,7 @@
         <v>71</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I15" s="33"/>
     </row>
@@ -3632,10 +3597,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D16" s="34">
         <v>9</v>
@@ -3651,7 +3616,7 @@
         <v>79</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I16" s="33"/>
     </row>
@@ -3660,10 +3625,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>171</v>
       </c>
       <c r="D17" s="34">
         <v>9</v>
@@ -3679,7 +3644,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I17" s="33"/>
     </row>
@@ -3688,13 +3653,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>174</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="34">
         <v>20</v>
@@ -3707,7 +3672,7 @@
         <v>106</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="33"/>
     </row>
@@ -3716,13 +3681,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>177</v>
-      </c>
       <c r="D19" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
@@ -3735,10 +3700,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3746,13 +3711,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>180</v>
-      </c>
       <c r="D20" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
@@ -3765,7 +3730,7 @@
         <v>108</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I20" s="33"/>
     </row>
@@ -3774,13 +3739,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>183</v>
-      </c>
       <c r="D21" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="34">
         <v>8</v>
@@ -3800,13 +3765,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="34">
         <v>4</v>
@@ -3837,13 +3802,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>186</v>
-      </c>
       <c r="D24" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
@@ -3855,7 +3820,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" s="33"/>
     </row>
@@ -3864,10 +3829,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>188</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>189</v>
       </c>
       <c r="D25" s="34">
         <v>9</v>
@@ -3890,13 +3855,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="34">
         <v>109</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF94BDF-5957-4023-84C2-FA16473D533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -979,7 +980,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1329,7 +1330,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1420,6 +1421,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1455,6 +1473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1630,22 +1665,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="5.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1676,7 +1711,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6">
+    <row r="3" spans="1:7" ht="51">
       <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +1885,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="64.8">
+    <row r="14" spans="1:7" ht="68">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1930,7 +1965,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="372.6">
+    <row r="18" spans="1:7">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1946,11 +1981,9 @@
       <c r="E18" s="26">
         <v>8</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="81">
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" ht="391">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1967,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="85">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1989,8 +2022,8 @@
       <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>89</v>
+      <c r="G20" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2009,9 +2042,11 @@
       <c r="E21" s="23">
         <v>10</v>
       </c>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.4">
+      <c r="G21" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -2027,11 +2062,9 @@
       <c r="E22" s="23">
         <v>1</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="34">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -2047,7 +2080,9 @@
       <c r="E23" s="23">
         <v>6</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="21" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="23">
@@ -2083,9 +2118,7 @@
       <c r="E25" s="26">
         <v>8</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="23">
@@ -2103,9 +2136,11 @@
       <c r="E26" s="26">
         <v>8</v>
       </c>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" ht="226.8">
+      <c r="G26" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -2121,11 +2156,9 @@
       <c r="E27" s="23">
         <v>2</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="238">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -2141,7 +2174,9 @@
       <c r="E28" s="26">
         <v>100</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="21" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="23">
@@ -2177,9 +2212,7 @@
       <c r="E30" s="26">
         <v>8</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="23">
@@ -2197,9 +2230,11 @@
       <c r="E31" s="23">
         <v>1</v>
       </c>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" ht="64.8">
+      <c r="G31" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -2215,11 +2250,9 @@
       <c r="E32" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" ht="68">
       <c r="A33" s="23">
         <v>24</v>
       </c>
@@ -2235,7 +2268,9 @@
       <c r="E33" s="23">
         <v>5</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="G33" s="27" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="23">
@@ -2303,6 +2338,7 @@
         <v>41</v>
       </c>
       <c r="E37" s="26"/>
+      <c r="G37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2322,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2330,11 +2366,11 @@
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2554,26 +2590,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1">
+    <row r="1" spans="1:8" ht="17.5" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
@@ -2801,7 +2837,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="62.4">
+    <row r="11" spans="1:8" ht="62">
       <c r="A11" s="34">
         <v>4</v>
       </c>
@@ -2897,7 +2933,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="31.2">
+    <row r="15" spans="1:8" ht="31">
       <c r="A15" s="34">
         <v>8</v>
       </c>
@@ -3170,27 +3206,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1">
+    <row r="1" spans="1:9" ht="17.5" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
@@ -3452,7 +3488,7 @@
       </c>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" ht="62.4">
+    <row r="11" spans="1:9" ht="62">
       <c r="A11" s="34">
         <v>4</v>
       </c>
@@ -3564,7 +3600,7 @@
       </c>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:9" ht="31.2">
+    <row r="15" spans="1:9" ht="31">
       <c r="A15" s="34">
         <v>8</v>
       </c>
@@ -3676,7 +3712,7 @@
       </c>
       <c r="I18" s="33"/>
     </row>
-    <row r="19" spans="1:9" ht="31.2">
+    <row r="19" spans="1:9" ht="31">
       <c r="A19" s="34">
         <v>12</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF94BDF-5957-4023-84C2-FA16473D533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3392FDA6-13B5-40C7-8648-B7B064EC0E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
@@ -2234,7 +2234,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="68">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -2250,9 +2250,11 @@
       <c r="E32" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" ht="68">
+      <c r="G32" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="23">
         <v>24</v>
       </c>
@@ -2268,9 +2270,7 @@
       <c r="E33" s="23">
         <v>5</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>220</v>
-      </c>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="23">
@@ -2338,7 +2338,6 @@
         <v>41</v>
       </c>
       <c r="E37" s="26"/>
-      <c r="G37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3392FDA6-13B5-40C7-8648-B7B064EC0E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF9725C-4980-4511-B776-5BD4B4C89DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -981,7 +981,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1668,22 +1668,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="7"/>
+    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
@@ -1711,7 +1711,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="51">
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>46</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
+    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="68">
+    <row r="14" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G18" s="39"/>
     </row>
-    <row r="19" spans="1:7" ht="391">
+    <row r="19" spans="1:7" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="85">
+    <row r="20" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="34">
+    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="238">
+    <row r="28" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68">
+    <row r="32" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>24</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>25</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>26</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="E35" s="26"/>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>27</v>
       </c>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>28</v>
       </c>
@@ -2365,15 +2365,15 @@
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>54</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>196</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>198</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>202</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>211</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>214</v>
       </c>
@@ -2596,19 +2596,19 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" thickBot="1">
+    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -2764,7 +2764,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <v>1</v>
       </c>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>2</v>
       </c>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <v>3</v>
       </c>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="62">
+    <row r="11" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>4</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>5</v>
       </c>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>6</v>
       </c>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>7</v>
       </c>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="31">
+    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>8</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <v>9</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>10</v>
       </c>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>11</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>12</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>13</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>14</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>15</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -3130,7 +3130,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>1</v>
       </c>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>2</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="G25" s="35"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>3</v>
       </c>
@@ -3212,20 +3212,20 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" thickBot="1">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="33"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -3404,7 +3404,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <v>1</v>
       </c>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>2</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I9" s="33"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <v>3</v>
       </c>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" ht="62">
+    <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>4</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>5</v>
       </c>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>6</v>
       </c>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>7</v>
       </c>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:9" ht="31">
+    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>8</v>
       </c>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <v>9</v>
       </c>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>10</v>
       </c>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>11</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I18" s="33"/>
     </row>
-    <row r="19" spans="1:9" ht="31">
+    <row r="19" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>12</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>13</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>14</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>15</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -3832,7 +3832,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>1</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>2</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>3</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF9725C-4980-4511-B776-5BD4B4C89DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B018AD65-3AD8-4665-84EC-C973C7462F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="227">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -976,12 +976,24 @@
 Y:已產生媒體</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>propDescBatchNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropDate Desc ,BatchNo Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropDate &lt;= ,AND RetrDate = ,AND BatchNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1668,11 +1680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="16" bestFit="1" customWidth="1"/>
@@ -1683,7 +1695,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
@@ -1698,7 +1710,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
@@ -1711,7 +1723,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="48.6">
       <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
@@ -1726,7 +1738,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1749,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1762,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -1763,7 +1775,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1788,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="40" t="s">
         <v>46</v>
       </c>
@@ -1789,7 +1801,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="15" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="15" customFormat="1">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -1831,7 +1843,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1849,7 +1861,7 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1867,7 +1879,7 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1885,7 +1897,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="64.8">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1905,7 +1917,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1983,7 +1995,7 @@
       </c>
       <c r="G18" s="39"/>
     </row>
-    <row r="19" spans="1:7" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="372.6">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -2003,7 +2015,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="81">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -2026,7 +2038,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -2064,7 +2076,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="32.4">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -2102,7 +2114,7 @@
       </c>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -2120,7 +2132,7 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -2140,7 +2152,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -2158,7 +2170,7 @@
       </c>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="226.8">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -2196,7 +2208,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -2214,7 +2226,7 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -2234,7 +2246,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="64.8">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="23">
         <v>24</v>
       </c>
@@ -2272,7 +2284,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="23">
         <v>25</v>
       </c>
@@ -2290,7 +2302,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="23">
         <v>26</v>
       </c>
@@ -2306,7 +2318,7 @@
       <c r="E35" s="26"/>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="23">
         <v>27</v>
       </c>
@@ -2324,7 +2336,7 @@
       </c>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="16">
         <v>28</v>
       </c>
@@ -2358,14 +2370,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -2373,7 +2385,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -2424,7 +2436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
         <v>54</v>
       </c>
@@ -2440,7 +2452,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -2451,7 +2463,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -2521,7 +2533,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>196</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -2543,7 +2555,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>198</v>
       </c>
@@ -2554,7 +2566,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>202</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>211</v>
       </c>
@@ -2570,7 +2582,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>214</v>
       </c>
@@ -2579,6 +2591,17 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2619,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -2608,7 +2631,7 @@
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
@@ -2634,7 +2657,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2658,7 +2681,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -2684,7 +2707,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -2708,7 +2731,7 @@
       </c>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -2732,7 +2755,7 @@
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -2754,7 +2777,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -2764,7 +2787,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="34">
         <v>1</v>
       </c>
@@ -2788,7 +2811,7 @@
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="34">
         <v>2</v>
       </c>
@@ -2812,7 +2835,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="34">
         <v>3</v>
       </c>
@@ -2836,7 +2859,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="62.4">
       <c r="A11" s="34">
         <v>4</v>
       </c>
@@ -2860,7 +2883,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="34">
         <v>5</v>
       </c>
@@ -2884,7 +2907,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="34">
         <v>6</v>
       </c>
@@ -2908,7 +2931,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="34">
         <v>7</v>
       </c>
@@ -2932,7 +2955,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="31.2">
       <c r="A15" s="34">
         <v>8</v>
       </c>
@@ -2956,7 +2979,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="34">
         <v>9</v>
       </c>
@@ -2980,7 +3003,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="34">
         <v>10</v>
       </c>
@@ -3004,7 +3027,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="34">
         <v>11</v>
       </c>
@@ -3028,7 +3051,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="34">
         <v>12</v>
       </c>
@@ -3052,7 +3075,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="34">
         <v>13</v>
       </c>
@@ -3076,7 +3099,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="34">
         <v>14</v>
       </c>
@@ -3098,7 +3121,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="34">
         <v>15</v>
       </c>
@@ -3120,7 +3143,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -3130,7 +3153,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="34">
         <v>1</v>
       </c>
@@ -3154,7 +3177,7 @@
       </c>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="34">
         <v>2</v>
       </c>
@@ -3176,7 +3199,7 @@
       <c r="G25" s="35"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="34">
         <v>3</v>
       </c>
@@ -3212,7 +3235,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -3225,7 +3248,7 @@
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
@@ -3254,7 +3277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3281,7 +3304,7 @@
       </c>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -3311,7 +3334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -3339,7 +3362,7 @@
       </c>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -3367,7 +3390,7 @@
       </c>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -3393,7 +3416,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="33"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -3404,7 +3427,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="34">
         <v>1</v>
       </c>
@@ -3431,7 +3454,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="34">
         <v>2</v>
       </c>
@@ -3459,7 +3482,7 @@
       </c>
       <c r="I9" s="33"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="34">
         <v>3</v>
       </c>
@@ -3487,7 +3510,7 @@
       </c>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="62.4">
       <c r="A11" s="34">
         <v>4</v>
       </c>
@@ -3515,7 +3538,7 @@
       </c>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="34">
         <v>5</v>
       </c>
@@ -3543,7 +3566,7 @@
       </c>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="34">
         <v>6</v>
       </c>
@@ -3571,7 +3594,7 @@
       </c>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="34">
         <v>7</v>
       </c>
@@ -3599,7 +3622,7 @@
       </c>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="31.2">
       <c r="A15" s="34">
         <v>8</v>
       </c>
@@ -3627,7 +3650,7 @@
       </c>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="34">
         <v>9</v>
       </c>
@@ -3655,7 +3678,7 @@
       </c>
       <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="34">
         <v>10</v>
       </c>
@@ -3683,7 +3706,7 @@
       </c>
       <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="34">
         <v>11</v>
       </c>
@@ -3711,7 +3734,7 @@
       </c>
       <c r="I18" s="33"/>
     </row>
-    <row r="19" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="31.2">
       <c r="A19" s="34">
         <v>12</v>
       </c>
@@ -3741,7 +3764,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="34">
         <v>13</v>
       </c>
@@ -3769,7 +3792,7 @@
       </c>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="34">
         <v>14</v>
       </c>
@@ -3795,7 +3818,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="34">
         <v>15</v>
       </c>
@@ -3821,7 +3844,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -3832,7 +3855,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="34">
         <v>1</v>
       </c>
@@ -3859,7 +3882,7 @@
       </c>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="34">
         <v>2</v>
       </c>
@@ -3885,7 +3908,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="34">
         <v>3</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B018AD65-3AD8-4665-84EC-C973C7462F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE338E16-23B8-47E6-BC6A-514B78150144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,6 @@
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -847,9 +837,125 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.AuthStatus
-空:再次授權
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料製作日期</t>
+  </si>
+  <si>
+    <t>OccPropDate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出日期(西元)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayBank = ,AND RepayAcct = ,AND PropDate = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facmNoPropDateFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>propBatchNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropDate = ,AND BatchNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CdCode.AchAuthCode
+A:紙本新增
+O:舊檔轉換
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>X:紙本終止
+R:申請恢復</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>產出媒體檔之日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>產出媒體檔之時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthMeth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null:未產生媒體
+Y:已產生媒體</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>propDescBatchNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropDate Desc ,BatchNo Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropDate &lt;= ,AND RetrDate = ,AND BatchNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空:再次授權
 單格空白:未授權
+CdCode.AuthStatus
 0:成功授權/取消授權
 1:印鑑不符
 2:無此帳號
@@ -871,122 +977,6 @@
 I:該用戶已死亡
 Z:未交易或匯入失敗資料</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.Sex</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料製作日期</t>
-  </si>
-  <si>
-    <t>OccPropDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出日期(西元)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayBank = ,AND RepayAcct = ,AND PropDate = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>facmNoPropDateFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessTime</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>propBatchNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropDate = ,AND BatchNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CdCode.AchAuthCode
-A:紙本新增
-O:舊檔轉換
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>X:紙本終止
-R:申請恢復</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>產出媒體檔之日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>產出媒體檔之時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AmlCheckItem
-0:非可疑名單/已完成名單確認
-1:需審查/確認
-2:為凍結名單/未確定名單</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.RelationCode
-00:本人
-01:夫
-02:妻
-03:父
-04:母
-05:子
-06:女
-07:兄
-08:弟
-09:姊
-10:妹
-11:姪子
-99:其他</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthMeth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null:未產生媒體
-Y:已產生媒體</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>propDescBatchNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropDate Desc ,BatchNo Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropDate &lt;= ,AND RetrDate = ,AND BatchNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1206,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,10 +1212,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1237,9 +1227,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1252,9 +1239,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,9 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1680,26 +1661,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="3" t="s">
         <v>104</v>
       </c>
@@ -1711,97 +1692,97 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1820,536 +1801,535 @@
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
-      <c r="A10" s="23">
+    <row r="10" spans="1:7">
+      <c r="A10" s="20">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <v>8</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23">
+      <c r="A11" s="20">
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="23">
         <v>7</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23">
+      <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
         <v>3</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23">
+      <c r="A13" s="20">
         <v>4</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>14</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="64.8">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>5</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <v>1</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="18" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23">
+      <c r="A15" s="20">
         <v>6</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="23">
         <v>3</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>7</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="23">
         <v>8</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20">
+        <v>8</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="14">
+        <v>6</v>
+      </c>
+      <c r="G17" s="36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="23">
+    <row r="18" spans="1:7">
+      <c r="A18" s="20">
+        <v>9</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="23">
         <v>8</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="372.6">
+      <c r="A19" s="20">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="81">
+      <c r="A20" s="20">
+        <v>11</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="20">
+        <v>12</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="20">
+        <v>10</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="20">
+        <v>13</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.4">
+      <c r="A23" s="20">
+        <v>14</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="20">
         <v>6</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G23" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="20">
+        <v>15</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="23">
+        <v>8</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20">
+        <v>16</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="23">
+        <v>8</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20">
+        <v>17</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="23">
+        <v>8</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="20">
+        <v>18</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="20">
+        <v>2</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="226.8">
+      <c r="A28" s="20">
+        <v>19</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="23">
+        <v>100</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20">
+        <v>20</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="20">
+        <v>10</v>
+      </c>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20">
+        <v>21</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="23">
+        <v>8</v>
+      </c>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20">
+        <v>22</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="64.8">
+      <c r="A32" s="20">
+        <v>23</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="23">
-        <v>9</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="26">
-        <v>8</v>
-      </c>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="1:7" ht="372.6">
-      <c r="A19" s="23">
-        <v>10</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="81">
-      <c r="A20" s="23">
-        <v>11</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="24" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="20">
+        <v>24</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="20">
+        <v>5</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20">
+        <v>25</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="23">
+        <v>6</v>
+      </c>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20">
         <v>26</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="B35" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20">
+        <v>27</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="23">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="23">
-        <v>12</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="23">
-        <v>10</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="23">
-        <v>13</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="23">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" ht="32.4">
-      <c r="A23" s="23">
-        <v>14</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="E36" s="23">
         <v>6</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="23">
-        <v>15</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="26">
-        <v>8</v>
-      </c>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23">
-        <v>16</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="26">
-        <v>8</v>
-      </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="23">
-        <v>17</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="26">
-        <v>8</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="23">
-        <v>18</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2</v>
-      </c>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" ht="226.8">
-      <c r="A28" s="23">
-        <v>19</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="26">
-        <v>100</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="23">
-        <v>20</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="23">
-        <v>10</v>
-      </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="23">
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="14">
+        <v>28</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="26">
-        <v>8</v>
-      </c>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="23">
-        <v>22</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="64.8">
-      <c r="A32" s="23">
-        <v>23</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="23">
-        <v>24</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="23">
-        <v>5</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="23">
-        <v>25</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="26">
-        <v>6</v>
-      </c>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="23">
-        <v>26</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="23">
-        <v>27</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="26">
-        <v>6</v>
-      </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="16">
-        <v>28</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="26"/>
+      <c r="E37" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2372,7 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
@@ -2445,7 +2425,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2576,32 +2556,32 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2632,594 +2612,594 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="31">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <v>3</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="28">
         <v>3</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="31">
         <v>6</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="31">
         <v>9</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="30" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="31">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="31">
         <v>9</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>8</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <v>17</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31">
         <v>9</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>7</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="31">
         <v>24</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="31">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>96</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <v>120</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <v>9</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>6</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>6</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <v>3</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <v>9</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="32">
         <v>801</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>10</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <v>19</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="62.4">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>4</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="31">
         <v>9</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="31">
         <v>7</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <v>26</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>5</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="31">
         <v>14</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="31">
         <v>40</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>6</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="31">
         <v>10</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <v>50</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>7</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="31">
         <v>20</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <v>70</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="31.2">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>8</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="31">
         <v>1</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>71</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>9</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="31">
+        <v>9</v>
+      </c>
+      <c r="E16" s="31">
+        <v>8</v>
+      </c>
+      <c r="F16" s="31">
+        <v>79</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="34">
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31">
+        <v>10</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="31">
         <v>9</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E17" s="31">
+        <v>7</v>
+      </c>
+      <c r="F17" s="31">
+        <v>86</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="31">
+        <v>20</v>
+      </c>
+      <c r="F18" s="31">
+        <v>106</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="31">
+        <v>12</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31">
+        <v>107</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="31">
+        <v>13</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31">
+        <v>108</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="31">
+        <v>14</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="31">
         <v>8</v>
       </c>
-      <c r="F16" s="34">
-        <v>79</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="34">
-        <v>10</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="34">
+      <c r="F21" s="31">
+        <v>116</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="31">
+        <v>15</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="31">
+        <v>4</v>
+      </c>
+      <c r="F22" s="31">
+        <v>120</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="31">
+        <v>1</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="31">
+        <v>3</v>
+      </c>
+      <c r="F24" s="31">
+        <v>3</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="31">
+        <v>2</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="31">
         <v>9</v>
       </c>
-      <c r="E17" s="34">
-        <v>7</v>
-      </c>
-      <c r="F17" s="34">
-        <v>86</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="34">
+      <c r="E25" s="31">
+        <v>8</v>
+      </c>
+      <c r="F25" s="31">
         <v>11</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="31">
+        <v>3</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="34">
-        <v>20</v>
-      </c>
-      <c r="F18" s="34">
-        <v>106</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="34">
-        <v>12</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="34">
-        <v>1</v>
-      </c>
-      <c r="F19" s="34">
-        <v>107</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34">
-        <v>13</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="34">
-        <v>1</v>
-      </c>
-      <c r="F20" s="34">
-        <v>108</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="34">
-        <v>14</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="34">
-        <v>8</v>
-      </c>
-      <c r="F21" s="34">
-        <v>116</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="34">
-        <v>15</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="34">
-        <v>4</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="E26" s="31">
+        <v>109</v>
+      </c>
+      <c r="F26" s="31">
         <v>120</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="34">
-        <v>1</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="34">
-        <v>3</v>
-      </c>
-      <c r="F24" s="34">
-        <v>3</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="34">
-        <v>2</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="34">
-        <v>9</v>
-      </c>
-      <c r="E25" s="34">
-        <v>8</v>
-      </c>
-      <c r="F25" s="34">
-        <v>11</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="34">
-        <v>3</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="34">
-        <v>109</v>
-      </c>
-      <c r="F26" s="34">
-        <v>120</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3249,690 +3229,690 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="27" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="31">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <v>3</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="28">
         <v>0</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="28">
         <v>3</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="31">
         <v>6</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="31">
         <f>F2+E2</f>
         <v>3</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="31">
         <v>9</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="30" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="31">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="31">
         <v>9</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>8</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <f t="shared" ref="F4:F6" si="0">F3+E3</f>
         <v>9</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="31">
         <v>17</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31">
         <v>9</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>7</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="31">
         <v>24</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="31">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>96</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="31">
         <v>120</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="33"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <v>9</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>6</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>0</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="31">
         <v>6</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <v>3</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <f>F8+E8</f>
         <v>6</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="31">
         <v>9</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="32">
         <v>801</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>10</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <f t="shared" ref="F10:F22" si="1">F9+E9</f>
         <v>9</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="31">
         <v>19</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="62.4">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>4</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="31">
         <v>9</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="31">
         <v>7</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="31">
         <v>26</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="I11" s="33"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>5</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="31">
         <v>14</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="31">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="31">
         <v>40</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>6</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="31">
         <v>10</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="31">
         <v>50</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>7</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="31">
         <v>20</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="31">
         <v>70</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="33"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="31.2">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>8</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="31">
         <v>1</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="31">
         <v>71</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="33"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>9</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="34">
+      <c r="C16" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="31">
         <v>9</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="31">
         <v>8</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="31">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="31">
         <v>79</v>
       </c>
-      <c r="H16" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="I16" s="33"/>
+      <c r="H16" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="34">
+      <c r="A17" s="31">
         <v>10</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="31">
         <v>9</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="31">
         <v>7</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="31">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="31">
         <v>86</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I17" s="33"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="34">
+      <c r="A18" s="31">
         <v>11</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="31">
         <v>20</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="31">
         <v>106</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="31.2">
-      <c r="A19" s="34">
+      <c r="A19" s="31">
         <v>12</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="31">
         <v>1</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="31">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="31">
         <v>107</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="35" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>13</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="31">
         <v>1</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="31">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="31">
         <v>108</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="I20" s="33"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="34">
+      <c r="A21" s="31">
         <v>14</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="31">
         <v>8</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="31">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="31">
         <v>116</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="34">
+      <c r="A22" s="31">
         <v>15</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="31">
         <v>4</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="31">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="31">
         <v>120</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>1</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="31">
         <v>3</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="31">
         <v>0</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="31">
         <v>3</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="33"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="34">
+      <c r="A25" s="31">
         <v>2</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="31">
         <v>9</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="31">
         <v>8</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="31">
         <f>F24+E24</f>
         <v>3</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="31">
         <v>11</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="33"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="34">
+      <c r="A26" s="31">
         <v>3</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="31">
         <v>109</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="31">
         <f>F25+E25</f>
         <v>11</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="31">
         <v>120</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="33"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE338E16-23B8-47E6-BC6A-514B78150144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF40244A-F1F0-42A5-A52E-C390CF3DA1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF40244A-F1F0-42A5-A52E-C390CF3DA1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569AE074-3F95-49FB-BAF7-48EC9812FCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="228">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -897,14 +897,6 @@
       <t>X:紙本終止
 R:申請恢復</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>產出媒體檔之日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>產出媒體檔之時間</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -977,6 +969,18 @@
 I:該用戶已死亡
 Z:未交易或匯入失敗資料</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日(資料篩選日、媒體產出日)
+重置媒體檔時清0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理同處理日期</t>
+  </si>
+  <si>
+    <t>日曆日(新增授權檔、產出媒體檔、重置媒體碼)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1196,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,6 +1323,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1661,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1917,7 +1924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="32.4">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -1933,8 +1940,8 @@
       <c r="E16" s="23">
         <v>8</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>217</v>
+      <c r="G16" s="41" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1953,8 +1960,8 @@
       <c r="E17" s="14">
         <v>6</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>218</v>
+      <c r="G17" s="41" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1992,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="81">
@@ -2000,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>26</v>
@@ -2073,10 +2080,10 @@
         <v>6</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.4">
       <c r="A24" s="20">
         <v>15</v>
       </c>
@@ -2092,7 +2099,9 @@
       <c r="E24" s="23">
         <v>8</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="18" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="20">
@@ -2167,7 +2176,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2243,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2575,13 +2584,13 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569AE074-3F95-49FB-BAF7-48EC9812FCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C391E-EF28-450B-B06D-316444E275C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="230">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -312,13 +312,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>第三人帳戶戶名</t>
-  </si>
-  <si>
     <t>第三人出生日期</t>
-  </si>
-  <si>
-    <t>第三人性別</t>
   </si>
   <si>
     <t>pkFacmNoFirst</t>
@@ -834,10 +828,6 @@
 D:取消授權
 Y:刪除(DeleteDate &gt; 0時，顯示用)
 Z:暫停授權(DeleteDate &gt; 0時，顯示用)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.Sex</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -904,23 +894,6 @@
 0:非可疑名單/已完成名單確認
 1:需審查/確認
 2:為凍結名單/未確定名單</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.RelationCode
-00:本人
-01:夫
-02:妻
-03:父
-04:母
-05:子
-06:女
-07:兄
-08:弟
-09:姊
-10:妹
-11:姪子
-99:其他</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -981,6 +954,45 @@
   <si>
     <t>日曆日(新增授權檔、產出媒體檔、重置媒體碼)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人帳戶戶名
+CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳戶戶名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人性別
+CdCode.Sex</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分證字號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1312,6 +1324,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1323,9 +1338,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1346,9 +1358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1386,9 +1398,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1421,26 +1433,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,26 +1468,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1668,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1684,12 +1662,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -1699,10 +1677,10 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1712,12 +1690,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>37</v>
@@ -1727,10 +1705,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -1738,10 +1716,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
@@ -1751,12 +1729,12 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1764,10 +1742,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1777,10 +1755,10 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="19" t="s">
         <v>63</v>
       </c>
@@ -1820,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>72</v>
@@ -1835,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>22</v>
@@ -1889,10 +1867,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>32</v>
@@ -1901,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1929,10 +1907,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>72</v>
@@ -1940,8 +1918,8 @@
       <c r="E16" s="23">
         <v>8</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>227</v>
+      <c r="G16" s="37" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1949,10 +1927,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>33</v>
@@ -1960,8 +1938,8 @@
       <c r="E17" s="14">
         <v>6</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>226</v>
+      <c r="G17" s="37" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1987,19 +1965,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="20">
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="81">
@@ -2007,7 +1985,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>26</v>
@@ -2022,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2042,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2050,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>43</v>
@@ -2080,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.4">
@@ -2100,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2126,10 +2104,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>72</v>
@@ -2138,7 +2116,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2159,7 +2137,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="226.8">
+    <row r="28" spans="1:7" ht="243">
       <c r="A28" s="20">
         <v>19</v>
       </c>
@@ -2167,7 +2145,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>35</v>
@@ -2176,7 +2154,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2184,10 +2162,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>32</v>
@@ -2195,7 +2173,9 @@
       <c r="E29" s="20">
         <v>10</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="21" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="20">
@@ -2205,7 +2185,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>72</v>
@@ -2213,9 +2193,11 @@
       <c r="E30" s="23">
         <v>8</v>
       </c>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32.4">
       <c r="A31" s="20">
         <v>22</v>
       </c>
@@ -2223,7 +2205,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>32</v>
@@ -2231,8 +2213,8 @@
       <c r="E31" s="20">
         <v>1</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>205</v>
+      <c r="G31" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="64.8">
@@ -2240,19 +2222,19 @@
         <v>23</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="20">
         <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2260,10 +2242,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>32</v>
@@ -2278,7 +2260,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>28</v>
@@ -2438,159 +2420,159 @@
         <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2622,28 +2604,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2651,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="E2" s="28">
         <v>3</v>
@@ -2666,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="30"/>
     </row>
@@ -2675,13 +2657,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="31">
         <v>6</v>
@@ -2690,10 +2672,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2701,10 +2683,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="31">
         <v>9</v>
@@ -2716,7 +2698,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H4" s="30"/>
     </row>
@@ -2725,10 +2707,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="31">
         <v>9</v>
@@ -2740,7 +2722,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H5" s="30"/>
     </row>
@@ -2749,13 +2731,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="31">
         <v>96</v>
@@ -2781,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="31">
         <v>9</v>
@@ -2796,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H8" s="30"/>
     </row>
@@ -2805,13 +2787,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="31">
         <v>3</v>
@@ -2829,13 +2811,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="31">
         <v>10</v>
@@ -2844,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H10" s="30"/>
     </row>
@@ -2853,10 +2835,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="31">
         <v>9</v>
@@ -2868,7 +2850,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="30"/>
     </row>
@@ -2877,13 +2859,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="31">
         <v>14</v>
@@ -2892,7 +2874,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H12" s="30"/>
     </row>
@@ -2901,13 +2883,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="31">
         <v>10</v>
@@ -2916,7 +2898,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H13" s="30"/>
     </row>
@@ -2925,13 +2907,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="31">
         <v>20</v>
@@ -2940,7 +2922,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" s="30"/>
     </row>
@@ -2949,13 +2931,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="31">
         <v>1</v>
@@ -2964,7 +2946,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H15" s="30"/>
     </row>
@@ -2973,10 +2955,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="31">
         <v>9</v>
@@ -2988,7 +2970,7 @@
         <v>79</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H16" s="30"/>
     </row>
@@ -2997,10 +2979,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="31">
         <v>9</v>
@@ -3012,7 +2994,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H17" s="30"/>
     </row>
@@ -3021,13 +3003,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="31">
         <v>20</v>
@@ -3036,7 +3018,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H18" s="30"/>
     </row>
@@ -3045,13 +3027,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="31">
         <v>1</v>
@@ -3060,7 +3042,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H19" s="30"/>
     </row>
@@ -3069,13 +3051,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
@@ -3084,7 +3066,7 @@
         <v>108</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H20" s="30"/>
     </row>
@@ -3093,13 +3075,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="31">
         <v>8</v>
@@ -3115,13 +3097,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="31">
         <v>4</v>
@@ -3147,13 +3129,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="31">
         <v>3</v>
@@ -3162,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H24" s="30"/>
     </row>
@@ -3171,10 +3153,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D25" s="31">
         <v>9</v>
@@ -3193,13 +3175,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E26" s="31">
         <v>109</v>
@@ -3239,31 +3221,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="F1" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>127</v>
-      </c>
       <c r="I1" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3271,13 +3253,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="E2" s="28">
         <v>3</v>
@@ -3289,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I2" s="30"/>
     </row>
@@ -3298,13 +3280,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="31">
         <v>6</v>
@@ -3317,10 +3299,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3328,10 +3310,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="31">
         <v>9</v>
@@ -3347,7 +3329,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I4" s="30"/>
     </row>
@@ -3356,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="31">
         <v>9</v>
@@ -3375,7 +3357,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" s="30"/>
     </row>
@@ -3384,13 +3366,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="31">
         <v>96</v>
@@ -3421,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="31">
         <v>9</v>
@@ -3439,7 +3421,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I8" s="30"/>
     </row>
@@ -3448,13 +3430,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="31">
         <v>3</v>
@@ -3476,13 +3458,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="31">
         <v>10</v>
@@ -3495,7 +3477,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="30"/>
     </row>
@@ -3504,10 +3486,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="31">
         <v>9</v>
@@ -3523,7 +3505,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I11" s="30"/>
     </row>
@@ -3532,13 +3514,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="31">
         <v>14</v>
@@ -3551,7 +3533,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I12" s="30"/>
     </row>
@@ -3560,13 +3542,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="31">
         <v>10</v>
@@ -3579,7 +3561,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I13" s="30"/>
     </row>
@@ -3588,13 +3570,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="31">
         <v>20</v>
@@ -3607,7 +3589,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I14" s="30"/>
     </row>
@@ -3616,13 +3598,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="31">
         <v>1</v>
@@ -3635,7 +3617,7 @@
         <v>71</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I15" s="30"/>
     </row>
@@ -3644,10 +3626,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="31">
         <v>9</v>
@@ -3663,7 +3645,7 @@
         <v>79</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I16" s="30"/>
     </row>
@@ -3672,10 +3654,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="31">
         <v>9</v>
@@ -3691,7 +3673,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I17" s="30"/>
     </row>
@@ -3700,13 +3682,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="31">
         <v>20</v>
@@ -3719,7 +3701,7 @@
         <v>106</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I18" s="30"/>
     </row>
@@ -3728,13 +3710,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="31">
         <v>1</v>
@@ -3747,10 +3729,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3758,13 +3740,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
@@ -3777,7 +3759,7 @@
         <v>108</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I20" s="30"/>
     </row>
@@ -3786,13 +3768,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="31">
         <v>8</v>
@@ -3812,13 +3794,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="31">
         <v>4</v>
@@ -3849,13 +3831,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="31">
         <v>3</v>
@@ -3867,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I24" s="30"/>
     </row>
@@ -3876,10 +3858,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D25" s="31">
         <v>9</v>
@@ -3902,13 +3884,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E26" s="31">
         <v>109</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C391E-EF28-450B-B06D-316444E275C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="231">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -811,9 +810,6 @@
   <si>
     <t>交易代號</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxCd</t>
   </si>
   <si>
     <t>facmNoRepayAcctFirst</t>
@@ -944,11 +940,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>日曆日(資料篩選日、媒體產出日)
-重置媒體檔時清0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>處理同處理日期</t>
   </si>
   <si>
@@ -994,11 +985,26 @@
     <t>身分證字號</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>TitaTxCd</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日(資料篩選日、媒體產出日)
+重置媒體檔時清0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2153-&gt;寫入但資料篩選時跳過
+L3100-&gt;更新此欄，
+L4410-&gt;已撥款才可建檔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1342,7 +1348,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1358,9 +1364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1398,9 +1404,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1435,7 +1441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1470,7 +1476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1643,11 +1649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1879,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1919,7 +1925,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1927,10 +1933,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>33</v>
@@ -1939,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1977,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="81">
@@ -1985,7 +1991,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>26</v>
@@ -2000,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2058,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.4">
@@ -2078,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2145,7 +2151,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>35</v>
@@ -2154,7 +2160,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2165,7 +2171,7 @@
         <v>106</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>32</v>
@@ -2185,7 +2191,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>72</v>
@@ -2205,7 +2211,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>32</v>
@@ -2214,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="64.8">
@@ -2234,15 +2240,15 @@
         <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="48.6">
       <c r="A33" s="20">
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>198</v>
@@ -2253,7 +2259,9 @@
       <c r="E33" s="20">
         <v>5</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="20">
@@ -2340,7 +2348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2539,40 +2547,40 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2955,7 +2963,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>166</v>
@@ -2970,7 +2978,7 @@
         <v>79</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H16" s="30"/>
     </row>
@@ -3199,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3626,10 +3634,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="31">
         <v>9</v>
@@ -3645,7 +3653,7 @@
         <v>79</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I16" s="30"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6527334-80F8-44B5-8362-43D8AA79CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,12 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="230">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,14 +174,6 @@
   </si>
   <si>
     <t>AuthCreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1000,12 +993,15 @@
 L4410-&gt;已撥款才可建檔</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1348,7 +1344,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1364,9 +1360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1404,9 +1400,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1441,7 +1437,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1476,7 +1472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1649,14 +1645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="14" bestFit="1" customWidth="1"/>
@@ -1667,13 +1663,13 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -1682,11 +1678,11 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1695,13 +1691,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6">
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>37</v>
@@ -1710,7 +1706,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>10</v>
       </c>
@@ -1721,7 +1717,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
@@ -1734,46 +1730,46 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="5"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -1804,22 +1800,22 @@
         <v>39</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="23">
         <v>8</v>
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>22</v>
@@ -1832,51 +1828,51 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="23">
         <v>3</v>
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="14">
         <v>14</v>
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="64.8">
+    <row r="14" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>32</v>
@@ -1885,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -1908,35 +1904,35 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.4">
+    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>7</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="23">
         <v>8</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>33</v>
@@ -1945,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -1956,42 +1952,42 @@
         <v>18</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="23">
         <v>8</v>
       </c>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" ht="372.6">
+    <row r="19" spans="1:7" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>10</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="20">
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="81">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>11</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>26</v>
@@ -2006,10 +2002,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>12</v>
       </c>
@@ -2026,18 +2022,18 @@
         <v>10</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>13</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>32</v>
@@ -2047,15 +2043,15 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="32.4">
+    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>32</v>
@@ -2064,76 +2060,76 @@
         <v>6</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>15</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>16</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="23">
         <v>8</v>
       </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" s="23">
         <v>8</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>18</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>32</v>
@@ -2143,15 +2139,15 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="243">
+    <row r="28" spans="1:7" ht="243" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>19</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>35</v>
@@ -2160,18 +2156,18 @@
         <v>100</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>20</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>32</v>
@@ -2180,38 +2176,38 @@
         <v>10</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>21</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="23">
         <v>8</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="32.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>22</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>32</v>
@@ -2220,38 +2216,38 @@
         <v>1</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="64.8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>23</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="20">
         <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="48.6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>32</v>
@@ -2260,15 +2256,15 @@
         <v>5</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>25</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>28</v>
@@ -2281,23 +2277,23 @@
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="E35" s="23"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>27</v>
       </c>
@@ -2315,7 +2311,7 @@
       </c>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>28</v>
       </c>
@@ -2326,7 +2322,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="E37" s="23"/>
     </row>
@@ -2348,7 +2344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2356,7 +2352,7 @@
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -2364,7 +2360,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2375,212 +2371,212 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="B20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2591,14 +2587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -2610,44 +2606,44 @@
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1">
+    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>129</v>
       </c>
       <c r="E2" s="28">
         <v>3</v>
@@ -2656,22 +2652,22 @@
         <v>3</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="31">
         <v>6</v>
@@ -2680,21 +2676,21 @@
         <v>9</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="31">
         <v>9</v>
@@ -2706,19 +2702,19 @@
         <v>17</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="31">
         <v>9</v>
@@ -2730,22 +2726,22 @@
         <v>24</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="31">
         <v>96</v>
@@ -2756,7 +2752,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -2766,15 +2762,15 @@
       <c r="G7" s="33"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>1</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="31">
         <v>9</v>
@@ -2786,22 +2782,22 @@
         <v>6</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>2</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="31">
         <v>3</v>
@@ -2814,18 +2810,18 @@
       </c>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="31">
         <v>10</v>
@@ -2834,19 +2830,19 @@
         <v>19</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:8" ht="62.4">
+    <row r="11" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>4</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="31">
         <v>9</v>
@@ -2858,22 +2854,22 @@
         <v>26</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" s="30"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>5</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="31">
         <v>14</v>
@@ -2882,22 +2878,22 @@
         <v>40</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="31">
         <v>10</v>
@@ -2906,22 +2902,22 @@
         <v>50</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>7</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="31">
         <v>20</v>
@@ -2930,22 +2926,22 @@
         <v>70</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="31.2">
+    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>8</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="31">
         <v>1</v>
@@ -2954,19 +2950,19 @@
         <v>71</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>9</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="31">
         <v>9</v>
@@ -2978,19 +2974,19 @@
         <v>79</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>10</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D17" s="31">
         <v>9</v>
@@ -3002,22 +2998,22 @@
         <v>86</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>11</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="31">
         <v>20</v>
@@ -3026,22 +3022,22 @@
         <v>106</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>12</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="31">
         <v>1</v>
@@ -3050,22 +3046,22 @@
         <v>107</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>13</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
@@ -3074,22 +3070,22 @@
         <v>108</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>14</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E21" s="31">
         <v>8</v>
@@ -3100,18 +3096,18 @@
       <c r="G21" s="32"/>
       <c r="H21" s="30"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>15</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" s="31">
         <v>4</v>
@@ -3122,7 +3118,7 @@
       <c r="G22" s="32"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -3132,18 +3128,18 @@
       <c r="G23" s="33"/>
       <c r="H23" s="30"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>1</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E24" s="31">
         <v>3</v>
@@ -3152,19 +3148,19 @@
         <v>3</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H24" s="30"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" s="31">
         <v>9</v>
@@ -3178,18 +3174,18 @@
       <c r="G25" s="32"/>
       <c r="H25" s="30"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" s="31">
         <v>109</v>
@@ -3207,14 +3203,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -3227,47 +3223,47 @@
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="F1" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>125</v>
-      </c>
       <c r="I1" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>129</v>
       </c>
       <c r="E2" s="28">
         <v>3</v>
@@ -3279,22 +3275,22 @@
         <v>3</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="31">
         <v>6</v>
@@ -3307,21 +3303,21 @@
         <v>9</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="31">
         <v>9</v>
@@ -3337,19 +3333,19 @@
         <v>17</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="31">
         <v>9</v>
@@ -3365,22 +3361,22 @@
         <v>24</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="31">
         <v>96</v>
@@ -3395,7 +3391,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -3406,15 +3402,15 @@
       <c r="H7" s="33"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>1</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="31">
         <v>9</v>
@@ -3429,22 +3425,22 @@
         <v>6</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>2</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="31">
         <v>3</v>
@@ -3461,18 +3457,18 @@
       </c>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="31">
         <v>10</v>
@@ -3485,19 +3481,19 @@
         <v>19</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" ht="62.4">
+    <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>4</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="31">
         <v>9</v>
@@ -3513,22 +3509,22 @@
         <v>26</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>5</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="31">
         <v>14</v>
@@ -3541,22 +3537,22 @@
         <v>40</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="31">
         <v>10</v>
@@ -3569,22 +3565,22 @@
         <v>50</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>7</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="31">
         <v>20</v>
@@ -3597,22 +3593,22 @@
         <v>70</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="31.2">
+    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>8</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="31">
         <v>1</v>
@@ -3625,19 +3621,19 @@
         <v>71</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>9</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16" s="31">
         <v>9</v>
@@ -3653,19 +3649,19 @@
         <v>79</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>10</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D17" s="31">
         <v>9</v>
@@ -3681,22 +3677,22 @@
         <v>86</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>11</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="31">
         <v>20</v>
@@ -3709,22 +3705,22 @@
         <v>106</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:9" ht="31.2">
+    <row r="19" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>12</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="31">
         <v>1</v>
@@ -3737,24 +3733,24 @@
         <v>107</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>13</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
@@ -3767,22 +3763,22 @@
         <v>108</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>14</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E21" s="31">
         <v>8</v>
@@ -3797,18 +3793,18 @@
       <c r="H21" s="32"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>15</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" s="31">
         <v>4</v>
@@ -3823,7 +3819,7 @@
       <c r="H22" s="32"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -3834,18 +3830,18 @@
       <c r="H23" s="33"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>1</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E24" s="31">
         <v>3</v>
@@ -3857,19 +3853,19 @@
         <v>3</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>2</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" s="31">
         <v>9</v>
@@ -3887,18 +3883,18 @@
       <c r="H25" s="32"/>
       <c r="I25" s="30"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>3</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" s="31">
         <v>109</v>
